--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_182.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.7, 10.32)]</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:00:01.900000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.496031746031746</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['C', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
+          <t>[('0:00:59.224321', '0:01:09.152241')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.3, 10.48)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(49.06, 59.7)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42), (29.5, 31.64)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.68, 9.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(14.78, 19.02)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
